--- a/4-semester/it-optimization-problem/lecture1.xlsx
+++ b/4-semester/it-optimization-problem/lecture1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakle\YandexDisk\University\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rgpu\4-semester\it-optimization-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{567F6D8F-3B85-46FE-BD0B-E95B8CB43CA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07FCD32-BFC6-47F8-8D69-9C20322B5E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E42DAD3-00D5-4CC9-96E8-018098DD1F42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E42DAD3-00D5-4CC9-96E8-018098DD1F42}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -187,8 +187,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -279,9 +279,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -319,7 +319,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -425,7 +425,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -578,14 +578,14 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D6" si="0">B4*$B$2+C4*$C$2</f>
+        <f t="shared" ref="D4:D5" si="0">B4*$B$2+C4*$C$2</f>
         <v>19</v>
       </c>
       <c r="F4" s="5"/>
@@ -682,7 +682,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H12" s="6"/>
     </row>
-    <row r="18" spans="9:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9" ht="18" x14ac:dyDescent="0.25">
       <c r="I18" s="7" t="s">
         <v>7</v>
       </c>
